--- a/Rumus_SAW.xlsx
+++ b/Rumus_SAW.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project skripsi\Saw_penilaian_kinerja\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9585" windowHeight="6600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9585" windowHeight="6600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rumus-SAW" sheetId="1" r:id="rId1"/>
+    <sheet name="contoh-saw-penilaian-kinerja" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
   <si>
     <t>Rumus Perhitungan SPK Menggunakan Metode SAW</t>
   </si>
@@ -85,13 +86,67 @@
   </si>
   <si>
     <t>c6</t>
+  </si>
+  <si>
+    <t>c7</t>
+  </si>
+  <si>
+    <t>c8</t>
+  </si>
+  <si>
+    <t>c9</t>
+  </si>
+  <si>
+    <t>c10</t>
+  </si>
+  <si>
+    <t>c11</t>
+  </si>
+  <si>
+    <t>c12</t>
+  </si>
+  <si>
+    <t>c13</t>
+  </si>
+  <si>
+    <t>c14</t>
+  </si>
+  <si>
+    <t>LSK001</t>
+  </si>
+  <si>
+    <t>LSK002</t>
+  </si>
+  <si>
+    <t>LSK003</t>
+  </si>
+  <si>
+    <t>LSK004</t>
+  </si>
+  <si>
+    <t>LSK005</t>
+  </si>
+  <si>
+    <t>Rosmiati</t>
+  </si>
+  <si>
+    <t>Sappara</t>
+  </si>
+  <si>
+    <t>Muh. Jusfikar S.Sos</t>
+  </si>
+  <si>
+    <t>Khaidir PH, S.Sos</t>
+  </si>
+  <si>
+    <t>Andi Sukmasari, ST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +197,12 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -467,7 +528,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -529,6 +590,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -843,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1072,19 +1134,19 @@
         <v>90</v>
       </c>
       <c r="E11" s="10">
-        <f>IF(E$4="cost",MIN(E$7:E$10),MAX(E$7:E$10))</f>
+        <f t="shared" ref="C11:H11" si="0">IF(E$4="cost",MIN(E$7:E$10),MAX(E$7:E$10))</f>
         <v>10</v>
       </c>
       <c r="F11" s="10">
-        <f>IF(F$4="cost",MIN(F$7:F$10),MAX(F$7:F$10))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G11" s="10">
-        <f>IF(G$4="cost",MIN(G$7:G$10),MAX(G$7:G$10))</f>
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="H11" s="11">
-        <f>IF(H$4="cost",MIN(H$7:H$10),MAX(H$7:H$10))</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="J11" s="30" t="s">
@@ -1105,19 +1167,19 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="E12" s="5">
-        <f>IF(E$4="cost",MIN(E$7:E$10)/E7,E7/MAX(E$7:E$10))</f>
+        <f t="shared" ref="C12:H15" si="1">IF(E$4="cost",MIN(E$7:E$10)/E7,E7/MAX(E$7:E$10))</f>
         <v>1</v>
       </c>
       <c r="F12" s="5">
-        <f>IF(F$4="cost",MIN(F$7:F$10)/F7,F7/MAX(F$7:F$10))</f>
+        <f t="shared" si="1"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="G12" s="5">
-        <f>IF(G$4="cost",MIN(G$7:G$10)/G7,G7/MAX(G$7:G$10))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H12" s="6">
-        <f>IF(H$4="cost",MIN(H$7:H$10)/H7,H7/MAX(H$7:H$10))</f>
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="J12" s="12">
@@ -1131,27 +1193,27 @@
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="33"/>
       <c r="C13" s="5">
-        <f>IF(C$4="cost",MIN(C$7:C$10)/C8,C8/MAX(C$7:C$10))</f>
+        <f t="shared" si="1"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="D13" s="5">
-        <f>IF(D$4="cost",MIN(D$7:D$10)/D8,D8/MAX(D$7:D$10))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E13" s="5">
-        <f>IF(E$4="cost",MIN(E$7:E$10)/E8,E8/MAX(E$7:E$10))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F13" s="5">
-        <f>IF(F$4="cost",MIN(F$7:F$10)/F8,F8/MAX(F$7:F$10))</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="G13" s="5">
-        <f>IF(G$4="cost",MIN(G$7:G$10)/G8,G8/MAX(G$7:G$10))</f>
+        <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="H13" s="6">
-        <f>IF(H$4="cost",MIN(H$7:H$10)/H8,H8/MAX(H$7:H$10))</f>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="J13" s="12">
@@ -1165,27 +1227,27 @@
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="33"/>
       <c r="C14" s="5">
-        <f>IF(C$4="cost",MIN(C$7:C$10)/C9,C9/MAX(C$7:C$10))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D14" s="5">
-        <f>IF(D$4="cost",MIN(D$7:D$10)/D9,D9/MAX(D$7:D$10))</f>
+        <f t="shared" si="1"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="E14" s="5">
-        <f>IF(E$4="cost",MIN(E$7:E$10)/E9,E9/MAX(E$7:E$10))</f>
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
       <c r="F14" s="5">
-        <f>IF(F$4="cost",MIN(F$7:F$10)/F9,F9/MAX(F$7:F$10))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G14" s="5">
-        <f>IF(G$4="cost",MIN(G$7:G$10)/G9,G9/MAX(G$7:G$10))</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="H14" s="6">
-        <f>IF(H$4="cost",MIN(H$7:H$10)/H9,H9/MAX(H$7:H$10))</f>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="J14" s="12">
@@ -1199,27 +1261,27 @@
     <row r="15" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="34"/>
       <c r="C15" s="7">
-        <f>IF(C$4="cost",MIN(C$7:C$10)/C10,C10/MAX(C$7:C$10))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D15" s="7">
-        <f>IF(D$4="cost",MIN(D$7:D$10)/D10,D10/MAX(D$7:D$10))</f>
+        <f t="shared" si="1"/>
         <v>0.77777777777777779</v>
       </c>
       <c r="E15" s="7">
-        <f>IF(E$4="cost",MIN(E$7:E$10)/E10,E10/MAX(E$7:E$10))</f>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="F15" s="7">
-        <f>IF(F$4="cost",MIN(F$7:F$10)/F10,F10/MAX(F$7:F$10))</f>
+        <f t="shared" si="1"/>
         <v>0.55555555555555558</v>
       </c>
       <c r="G15" s="7">
-        <f>IF(G$4="cost",MIN(G$7:G$10)/G10,G10/MAX(G$7:G$10))</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="H15" s="8">
-        <f>IF(H$4="cost",MIN(H$7:H$10)/H10,H10/MAX(H$7:H$10))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J15" s="13">
@@ -1253,4 +1315,870 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:P27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="C5" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="22">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E5" s="22">
+        <v>0.06</v>
+      </c>
+      <c r="F5" s="22">
+        <v>0.08</v>
+      </c>
+      <c r="G5" s="23">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="H5" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="I5" s="23">
+        <v>0.04</v>
+      </c>
+      <c r="J5" s="23">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K5" s="23">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="L5" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="M5" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="N5" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="O5" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="P5" s="29">
+        <f>SUM(B5:O5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3">
+        <v>89</v>
+      </c>
+      <c r="C7" s="3">
+        <v>88</v>
+      </c>
+      <c r="D7" s="3">
+        <v>78</v>
+      </c>
+      <c r="E7" s="3">
+        <v>85</v>
+      </c>
+      <c r="F7" s="3">
+        <v>90</v>
+      </c>
+      <c r="G7" s="4">
+        <v>94</v>
+      </c>
+      <c r="H7" s="4">
+        <v>96</v>
+      </c>
+      <c r="I7" s="4">
+        <v>92</v>
+      </c>
+      <c r="J7" s="4">
+        <v>84</v>
+      </c>
+      <c r="K7" s="4">
+        <v>88</v>
+      </c>
+      <c r="L7" s="4">
+        <v>78</v>
+      </c>
+      <c r="M7" s="4">
+        <v>70</v>
+      </c>
+      <c r="N7" s="4">
+        <v>91</v>
+      </c>
+      <c r="O7" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="3">
+        <v>90</v>
+      </c>
+      <c r="C8" s="3">
+        <v>95</v>
+      </c>
+      <c r="D8" s="3">
+        <v>90</v>
+      </c>
+      <c r="E8" s="3">
+        <v>87</v>
+      </c>
+      <c r="F8" s="3">
+        <v>90</v>
+      </c>
+      <c r="G8" s="4">
+        <v>97</v>
+      </c>
+      <c r="H8" s="4">
+        <v>92</v>
+      </c>
+      <c r="I8" s="4">
+        <v>94</v>
+      </c>
+      <c r="J8" s="4">
+        <v>96</v>
+      </c>
+      <c r="K8" s="4">
+        <v>90</v>
+      </c>
+      <c r="L8" s="4">
+        <v>99</v>
+      </c>
+      <c r="M8" s="4">
+        <v>89</v>
+      </c>
+      <c r="N8" s="4">
+        <v>87</v>
+      </c>
+      <c r="O8" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="3">
+        <v>98</v>
+      </c>
+      <c r="C9" s="3">
+        <v>88</v>
+      </c>
+      <c r="D9" s="3">
+        <v>96</v>
+      </c>
+      <c r="E9" s="3">
+        <v>78</v>
+      </c>
+      <c r="F9" s="3">
+        <v>88</v>
+      </c>
+      <c r="G9" s="4">
+        <v>90</v>
+      </c>
+      <c r="H9" s="4">
+        <v>85</v>
+      </c>
+      <c r="I9" s="4">
+        <v>82</v>
+      </c>
+      <c r="J9" s="4">
+        <v>91</v>
+      </c>
+      <c r="K9" s="4">
+        <v>90</v>
+      </c>
+      <c r="L9" s="4">
+        <v>97</v>
+      </c>
+      <c r="M9" s="4">
+        <v>87</v>
+      </c>
+      <c r="N9" s="4">
+        <v>99</v>
+      </c>
+      <c r="O9" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="3">
+        <v>80</v>
+      </c>
+      <c r="C10" s="3">
+        <v>97</v>
+      </c>
+      <c r="D10" s="3">
+        <v>94</v>
+      </c>
+      <c r="E10" s="3">
+        <v>78</v>
+      </c>
+      <c r="F10" s="3">
+        <v>88</v>
+      </c>
+      <c r="G10" s="4">
+        <v>98</v>
+      </c>
+      <c r="H10" s="4">
+        <v>84</v>
+      </c>
+      <c r="I10" s="4">
+        <v>89</v>
+      </c>
+      <c r="J10" s="4">
+        <v>90</v>
+      </c>
+      <c r="K10" s="4">
+        <v>98</v>
+      </c>
+      <c r="L10" s="4">
+        <v>99</v>
+      </c>
+      <c r="M10" s="4">
+        <v>93</v>
+      </c>
+      <c r="N10" s="4">
+        <v>78</v>
+      </c>
+      <c r="O10" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="3">
+        <v>87</v>
+      </c>
+      <c r="C11" s="3">
+        <v>81</v>
+      </c>
+      <c r="D11" s="3">
+        <v>76</v>
+      </c>
+      <c r="E11" s="3">
+        <v>80</v>
+      </c>
+      <c r="F11" s="3">
+        <v>93</v>
+      </c>
+      <c r="G11" s="4">
+        <v>95</v>
+      </c>
+      <c r="H11" s="4">
+        <v>95</v>
+      </c>
+      <c r="I11" s="4">
+        <v>94</v>
+      </c>
+      <c r="J11" s="4">
+        <v>98</v>
+      </c>
+      <c r="K11" s="4">
+        <v>89</v>
+      </c>
+      <c r="L11" s="4">
+        <v>99</v>
+      </c>
+      <c r="M11" s="4">
+        <v>95</v>
+      </c>
+      <c r="N11" s="4">
+        <v>80</v>
+      </c>
+      <c r="O11" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="10">
+        <f>IF(B$4="cost",MIN(B$7:B$11),MAX(B$7:B$11))</f>
+        <v>98</v>
+      </c>
+      <c r="C12" s="10">
+        <f t="shared" ref="C12:O12" si="0">IF(C$4="cost",MIN(C$7:C$11),MAX(C$7:C$11))</f>
+        <v>97</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="G12" s="10">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="J12" s="10">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="K12" s="10">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="L12" s="10">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="M12" s="10">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="N12" s="10">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="O12" s="10">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="5">
+        <f>IF(B$4="cost",MIN(B$7:B$11)/B7,B7/MAX(B$7:B$11))</f>
+        <v>0.90816326530612246</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" ref="C13:O13" si="1">IF(C$4="cost",MIN(C$7:C$11)/C7,C7/MAX(C$7:C$11))</f>
+        <v>0.90721649484536082</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="1"/>
+        <v>0.8125</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>0.97701149425287359</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="1"/>
+        <v>0.967741935483871</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="1"/>
+        <v>0.95918367346938771</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="1"/>
+        <v>0.97872340425531912</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="1"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="1"/>
+        <v>0.89795918367346939</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="1"/>
+        <v>0.78787878787878785</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" si="1"/>
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="N13" s="5">
+        <f t="shared" si="1"/>
+        <v>0.91919191919191923</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="33"/>
+      <c r="B14" s="5">
+        <f t="shared" ref="B14:O14" si="2">IF(B$4="cost",MIN(B$7:B$11)/B8,B8/MAX(B$7:B$11))</f>
+        <v>0.91836734693877553</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="2"/>
+        <v>0.97938144329896903</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="2"/>
+        <v>0.9375</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="2"/>
+        <v>0.967741935483871</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="2"/>
+        <v>0.98979591836734693</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="2"/>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="2"/>
+        <v>0.97959183673469385</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" si="2"/>
+        <v>0.91836734693877553</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M14" s="5">
+        <f t="shared" si="2"/>
+        <v>0.93684210526315792</v>
+      </c>
+      <c r="N14" s="5">
+        <f t="shared" si="2"/>
+        <v>0.87878787878787878</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" si="2"/>
+        <v>0.74444444444444446</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="33"/>
+      <c r="B15" s="5">
+        <f t="shared" ref="B15:O15" si="3">IF(B$4="cost",MIN(B$7:B$11)/B9,B9/MAX(B$7:B$11))</f>
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="3"/>
+        <v>0.90721649484536082</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="3"/>
+        <v>0.89655172413793105</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="3"/>
+        <v>0.94623655913978499</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="3"/>
+        <v>0.91836734693877553</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="3"/>
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="3"/>
+        <v>0.87234042553191493</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="3"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="K15" s="5">
+        <f t="shared" si="3"/>
+        <v>0.91836734693877553</v>
+      </c>
+      <c r="L15" s="5">
+        <f t="shared" si="3"/>
+        <v>0.97979797979797978</v>
+      </c>
+      <c r="M15" s="5">
+        <f t="shared" si="3"/>
+        <v>0.91578947368421049</v>
+      </c>
+      <c r="N15" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O15" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="34"/>
+      <c r="B16" s="5">
+        <f t="shared" ref="B16:O16" si="4">IF(B$4="cost",MIN(B$7:B$11)/B10,B10/MAX(B$7:B$11))</f>
+        <v>0.81632653061224492</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="4"/>
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="4"/>
+        <v>0.89655172413793105</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="4"/>
+        <v>0.94623655913978499</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="4"/>
+        <v>0.875</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="4"/>
+        <v>0.94680851063829785</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="4"/>
+        <v>0.91836734693877553</v>
+      </c>
+      <c r="K16" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L16" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M16" s="5">
+        <f t="shared" si="4"/>
+        <v>0.97894736842105268</v>
+      </c>
+      <c r="N16" s="5">
+        <f t="shared" si="4"/>
+        <v>0.78787878787878785</v>
+      </c>
+      <c r="O16" s="5">
+        <f t="shared" si="4"/>
+        <v>0.98888888888888893</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="5">
+        <f t="shared" ref="B17:O17" si="5">IF(B$4="cost",MIN(B$7:B$11)/B11,B11/MAX(B$7:B$11))</f>
+        <v>0.88775510204081631</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" si="5"/>
+        <v>0.83505154639175261</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="5"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="5"/>
+        <v>0.91954022988505746</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="5"/>
+        <v>0.96938775510204078</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="5"/>
+        <v>0.98958333333333337</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" si="5"/>
+        <v>0.90816326530612246</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M17" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N17" s="5">
+        <f t="shared" si="5"/>
+        <v>0.80808080808080807</v>
+      </c>
+      <c r="O17" s="5">
+        <f t="shared" si="5"/>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26">
+        <f>MAX(B23:B26)</f>
+        <v>0.94259473008770167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="12">
+        <f>(B$5*B13)+(C$5*C13)+(D$5*D13)+(E$5*E13)+(F$5*F13)+(G$5*G13)+(H$5*H13)+(I$5*I13)+(J$5*J13)+(K$5*K13)+(L$5*L13)+(M$5*M13)+(N$5*N13)+(O$5*O13)</f>
+        <v>0.88763093829811612</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="12">
+        <f t="shared" ref="B24:B27" si="6">(B$5*B14)+(C$5*C14)+(D$5*D14)+(E$5*E14)+(F$5*F14)+(G$5*G14)+(H$5*H14)+(I$5*I14)+(J$5*J14)+(K$5*K14)+(L$5*L14)+(M$5*M14)+(N$5*N14)+(O$5*O14)</f>
+        <v>0.930845229860367</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="12">
+        <f t="shared" si="6"/>
+        <v>0.93924636619336943</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="12">
+        <f t="shared" si="6"/>
+        <v>0.94259473008770167</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="12">
+        <f t="shared" si="6"/>
+        <v>0.93819721591170169</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A13:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Rumus_SAW.xlsx
+++ b/Rumus_SAW.xlsx
@@ -575,6 +575,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -590,7 +591,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -928,24 +928,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="18" t="s">
@@ -1134,7 +1134,7 @@
         <v>90</v>
       </c>
       <c r="E11" s="10">
-        <f t="shared" ref="C11:H11" si="0">IF(E$4="cost",MIN(E$7:E$10),MAX(E$7:E$10))</f>
+        <f t="shared" ref="E11:H11" si="0">IF(E$4="cost",MIN(E$7:E$10),MAX(E$7:E$10))</f>
         <v>10</v>
       </c>
       <c r="F11" s="10">
@@ -1149,13 +1149,13 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J11" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="30"/>
+      <c r="K11" s="31"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="33" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="5">
@@ -1191,7 +1191,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="33"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="5">
         <f t="shared" si="1"/>
         <v>0.88888888888888884</v>
@@ -1225,7 +1225,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="33"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -1259,7 +1259,7 @@
       </c>
     </row>
     <row r="15" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="34"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -1321,14 +1321,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" customWidth="1"/>
@@ -1786,7 +1786,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="5">
@@ -1847,7 +1847,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="5">
         <f t="shared" ref="B14:O14" si="2">IF(B$4="cost",MIN(B$7:B$11)/B8,B8/MAX(B$7:B$11))</f>
         <v>0.91836734693877553</v>
@@ -1906,7 +1906,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="5">
         <f t="shared" ref="B15:O15" si="3">IF(B$4="cost",MIN(B$7:B$11)/B9,B9/MAX(B$7:B$11))</f>
         <v>1</v>
@@ -1965,7 +1965,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="5">
         <f t="shared" ref="B16:O16" si="4">IF(B$4="cost",MIN(B$7:B$11)/B10,B10/MAX(B$7:B$11))</f>
         <v>0.81632653061224492</v>
@@ -2112,10 +2112,10 @@
     </row>
     <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="30"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
@@ -2168,7 +2168,7 @@
         <f t="shared" si="6"/>
         <v>0.93819721591170169</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="30" t="s">
         <v>39</v>
       </c>
       <c r="D27" s="1"/>
